--- a/outputFile/LOVO_NOFOLDS.xlsx
+++ b/outputFile/LOVO_NOFOLDS.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3989487945688484</v>
+        <v>0.6811950473462889</v>
       </c>
     </row>
   </sheetData>
